--- a/Project-CryptoQuery/Second.xlsx
+++ b/Project-CryptoQuery/Second.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Softwares\Git_Repository\Temp-Files\Project-CryptoQuery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Softwares\Git_Repository\160-IshavVerma-RPA\Project-CryptoQuery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A97A9A-952C-4689-A2BF-5158B4C437F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A484B311-3343-4F0D-AFB9-E881CC05C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1200" windowWidth="14910" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22226,64 +22226,64 @@
     <t>18,833,688 BCH</t>
   </si>
   <si>
-    <t>$37,280,920,512
-782,924 BTC</t>
-  </si>
-  <si>
-    <t>$28,829,461,237
-8,128,493 ETH</t>
-  </si>
-  <si>
-    <t>$4,960,302,965
-1,757,588,165 ADA</t>
-  </si>
-  <si>
-    <t>$2,269,428,799
-4,774,630 BNB</t>
-  </si>
-  <si>
-    <t>$89,745,229,997
-89,685,372,668 USDT</t>
-  </si>
-  <si>
-    <t>$6,179,314,714
-5,180,857,274 XRP</t>
-  </si>
-  <si>
-    <t>$1,804,893,718
-6,413,661,323 DOGE</t>
-  </si>
-  <si>
-    <t>$7,285,031,984
-63,818,310 SOL</t>
-  </si>
-  <si>
-    <t>$5,111,847,081
-168,578,893 DOT</t>
-  </si>
-  <si>
-    <t>$3,315,415,493
-3,314,698,789 USDC</t>
-  </si>
-  <si>
-    <t>$980,642,262
-32,394,846 UNI</t>
-  </si>
-  <si>
-    <t>$1,252,639,833
-39,033,287 LUNA</t>
-  </si>
-  <si>
-    <t>$6,127,007,728
-6,123,849,701 BUSD</t>
-  </si>
-  <si>
-    <t>$1,677,493,045
-60,644,806 LINK</t>
-  </si>
-  <si>
-    <t>$2,993,163,598
-4,668,348 BCH</t>
+    <t>$37,357,128,012
+783,548 BTC</t>
+  </si>
+  <si>
+    <t>$28,444,185,104
+8,044,199 ETH</t>
+  </si>
+  <si>
+    <t>$4,945,456,062
+1,750,938,174 ADA</t>
+  </si>
+  <si>
+    <t>$2,270,196,333
+4,777,869 BNB</t>
+  </si>
+  <si>
+    <t>$89,437,552,942
+89,373,518,913 USDT</t>
+  </si>
+  <si>
+    <t>$6,163,496,712
+5,169,673,768 XRP</t>
+  </si>
+  <si>
+    <t>$1,800,683,289
+6,409,142,734 DOGE</t>
+  </si>
+  <si>
+    <t>$7,403,426,710
+64,006,828 SOL</t>
+  </si>
+  <si>
+    <t>$5,016,869,112
+166,593,864 DOT</t>
+  </si>
+  <si>
+    <t>$3,303,664,782
+3,302,364,241 USDC</t>
+  </si>
+  <si>
+    <t>$969,632,805
+32,080,224 UNI</t>
+  </si>
+  <si>
+    <t>$1,257,729,958
+38,900,009 LUNA</t>
+  </si>
+  <si>
+    <t>$6,070,621,322
+6,067,898,697 BUSD</t>
+  </si>
+  <si>
+    <t>$1,670,982,652
+59,958,463 LINK</t>
+  </si>
+  <si>
+    <t>$2,988,328,237
+4,660,613 BCH</t>
   </si>
 </sst>
 </file>
@@ -22681,16 +22681,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="2">
-        <v>47617.56</v>
+        <v>47676.9</v>
       </c>
       <c r="E1" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="F1" s="3">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F1" s="3">
-        <v>5.1000000000000004E-3</v>
-      </c>
       <c r="G1" s="4">
-        <v>895369301811</v>
+        <v>896485125943</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7145</v>
@@ -22707,16 +22707,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>3546.72</v>
+        <v>3535.99</v>
       </c>
       <c r="E2" s="3">
-        <v>5.8900000000000001E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="F2" s="3">
-        <v>0.1384</v>
+        <v>0.1293</v>
       </c>
       <c r="G2" s="4">
-        <v>416183586751</v>
+        <v>414924554382</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7146</v>
@@ -22736,13 +22736,13 @@
         <v>2.82</v>
       </c>
       <c r="E3" s="3">
-        <v>2.7000000000000001E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="F3" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>6.2799999999999995E-2</v>
       </c>
       <c r="G3" s="4">
-        <v>90721290072</v>
+        <v>90793272538</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7147</v>
@@ -22759,16 +22759,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>475.31</v>
+        <v>475.15</v>
       </c>
       <c r="E4" s="3">
-        <v>2.64E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="F4" s="3">
-        <v>2.9999999999999997E-4</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="G4" s="4">
-        <v>79917192202</v>
+        <v>79890021845</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7148</v>
@@ -22788,13 +22788,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="F5" s="3">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G5" s="4">
-        <v>65644460860</v>
+        <v>65647679355</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>7149</v>
@@ -22814,13 +22814,13 @@
         <v>1.19</v>
       </c>
       <c r="E6" s="3">
-        <v>6.6199999999999995E-2</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="F6" s="3">
-        <v>5.5300000000000002E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="G6" s="4">
-        <v>55512001375</v>
+        <v>55489681214</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>7150</v>
@@ -22837,16 +22837,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>0.28139999999999998</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="E7" s="3">
-        <v>2.1999999999999999E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="F7" s="3">
-        <v>2.3E-3</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="G7" s="4">
-        <v>36893698647</v>
+        <v>36833583778</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>7151</v>
@@ -22863,16 +22863,16 @@
         <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>114.15</v>
+        <v>115.67</v>
       </c>
       <c r="E8" s="3">
-        <v>4.82E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F8" s="3">
-        <v>0.68930000000000002</v>
+        <v>0.71719999999999995</v>
       </c>
       <c r="G8" s="4">
-        <v>33186111595</v>
+        <v>33626114037</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>7152</v>
@@ -22889,16 +22889,16 @@
         <v>7127</v>
       </c>
       <c r="D9" s="2">
-        <v>30.32</v>
+        <v>30.11</v>
       </c>
       <c r="E9" s="3">
-        <v>7.1499999999999994E-2</v>
+        <v>4.87E-2</v>
       </c>
       <c r="F9" s="3">
-        <v>0.21879999999999999</v>
+        <v>0.19980000000000001</v>
       </c>
       <c r="G9" s="4">
-        <v>29946539313</v>
+        <v>29740328084</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>7153</v>
@@ -22918,13 +22918,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="F10" s="3">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="G10" s="4">
-        <v>27453280872</v>
+        <v>27458155563</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>7154</v>
@@ -22941,16 +22941,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>30.27</v>
+        <v>30.23</v>
       </c>
       <c r="E11" s="3">
-        <v>7.6600000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F11" s="3">
-        <v>0.161</v>
+        <v>0.1497</v>
       </c>
       <c r="G11" s="4">
-        <v>18515380185</v>
+        <v>18487059909</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>7155</v>
@@ -22967,16 +22967,16 @@
         <v>7129</v>
       </c>
       <c r="D12" s="2">
-        <v>32.090000000000003</v>
+        <v>32.33</v>
       </c>
       <c r="E12" s="3">
-        <v>4.1300000000000003E-2</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="F12" s="3">
-        <v>0.1087</v>
+        <v>0.1206</v>
       </c>
       <c r="G12" s="4">
-        <v>12882671527</v>
+        <v>12979338264</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>7156</v>
@@ -22996,13 +22996,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="G13" s="4">
-        <v>12502552901</v>
+        <v>12501715665</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>7157</v>
@@ -23019,16 +23019,16 @@
         <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>27.66</v>
+        <v>27.87</v>
       </c>
       <c r="E14" s="3">
-        <v>5.67E-2</v>
+        <v>4.2200000000000001E-2</v>
       </c>
       <c r="F14" s="3">
-        <v>8.2100000000000006E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="G14" s="4">
-        <v>12420031582</v>
+        <v>12513449133</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>7158</v>
@@ -23045,16 +23045,16 @@
         <v>12</v>
       </c>
       <c r="D15" s="2">
-        <v>641.16</v>
+        <v>641.19000000000005</v>
       </c>
       <c r="E15" s="3">
-        <v>3.7000000000000002E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="F15" s="3">
-        <v>1.72E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="G15" s="4">
-        <v>12075430850</v>
+        <v>12075930128</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>7159</v>
@@ -23068,7 +23068,7 @@
         <v>7131</v>
       </c>
       <c r="D16" s="2">
-        <v>174.69</v>
+        <v>174.67</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -23076,7 +23076,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="2">
-        <v>64.94</v>
+        <v>65.180000000000007</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
@@ -23084,7 +23084,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>47578.21</v>
+        <v>47598.98</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
@@ -23092,7 +23092,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="2">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
@@ -23108,7 +23108,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>65.63</v>
+        <v>65.42</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
@@ -23124,7 +23124,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="2">
-        <v>76.69</v>
+        <v>76.81</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
@@ -23132,7 +23132,7 @@
         <v>42</v>
       </c>
       <c r="D24" s="2">
-        <v>43.23</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
@@ -23164,7 +23164,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="2">
-        <v>296.33999999999997</v>
+        <v>295.51</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
@@ -23172,23 +23172,23 @@
         <v>27</v>
       </c>
       <c r="D29" s="2">
-        <v>399.42</v>
+        <v>397.3</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
-        <v>23.15</v>
+        <v>54.63</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2">
-        <v>53.17</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
@@ -23196,7 +23196,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>22.82</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
@@ -23220,7 +23220,7 @@
         <v>44</v>
       </c>
       <c r="D35" s="2">
-        <v>71.650000000000006</v>
+        <v>71.72</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
@@ -23228,7 +23228,7 @@
         <v>34</v>
       </c>
       <c r="D36" s="2">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
@@ -23260,7 +23260,7 @@
         <v>36</v>
       </c>
       <c r="D40" s="2">
-        <v>53.05</v>
+        <v>53.08</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
@@ -23268,7 +23268,7 @@
         <v>32</v>
       </c>
       <c r="D41" s="2">
-        <v>47741.69</v>
+        <v>47600.86</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
@@ -23276,7 +23276,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="2">
-        <v>3537.15</v>
+        <v>3527.37</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
@@ -23284,7 +23284,7 @@
         <v>50</v>
       </c>
       <c r="D43" s="2">
-        <v>176.03</v>
+        <v>176.67</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
@@ -23292,7 +23292,7 @@
         <v>56</v>
       </c>
       <c r="D44" s="2">
-        <v>378.75</v>
+        <v>376.58</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
@@ -23300,7 +23300,7 @@
         <v>40</v>
       </c>
       <c r="D45" s="2">
-        <v>168.23</v>
+        <v>168.33</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
@@ -23308,7 +23308,7 @@
         <v>58</v>
       </c>
       <c r="D46" s="2">
-        <v>29.28</v>
+        <v>29.06</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
@@ -23316,7 +23316,7 @@
         <v>49</v>
       </c>
       <c r="D47" s="2">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
@@ -23348,7 +23348,7 @@
         <v>46</v>
       </c>
       <c r="D51" s="2">
-        <v>458.59</v>
+        <v>455.42</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
@@ -23356,7 +23356,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="2">
-        <v>14.91</v>
+        <v>14.92</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
@@ -23369,34 +23369,34 @@
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D54" s="2">
-        <v>1</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D55" s="2">
-        <v>5.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D56" s="2">
-        <v>233.34</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57" s="2">
-        <v>10.67</v>
+        <v>232.68</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
@@ -23404,39 +23404,39 @@
         <v>53</v>
       </c>
       <c r="D58" s="2">
-        <v>176.71</v>
+        <v>176.79</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D59" s="2">
-        <v>0.38</v>
+        <v>185.49</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D60" s="2">
-        <v>184.2</v>
+        <v>23.03</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D61" s="2">
-        <v>0.05</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D62" s="2">
-        <v>22.86</v>
+        <v>0.05</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -23448,7 +23448,7 @@
         <v>7132</v>
       </c>
       <c r="D63" s="2">
-        <v>61.21</v>
+        <v>61.48</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -23484,7 +23484,7 @@
         <v>64</v>
       </c>
       <c r="D66" s="2">
-        <v>145.03</v>
+        <v>145.22999999999999</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -23493,34 +23493,34 @@
     </row>
     <row r="67" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D67" s="2">
-        <v>1.46</v>
+        <v>0.02</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="4"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D68" s="2">
-        <v>0.33</v>
+        <v>1.48</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="4"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="D69" s="2">
-        <v>0.02</v>
+        <v>0.33</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -23568,7 +23568,7 @@
         <v>89</v>
       </c>
       <c r="D73" s="2">
-        <v>5.51</v>
+        <v>5.53</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -23592,7 +23592,7 @@
         <v>72</v>
       </c>
       <c r="D75" s="2">
-        <v>12.75</v>
+        <v>12.65</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -23604,7 +23604,7 @@
         <v>73</v>
       </c>
       <c r="D76" s="2">
-        <v>39713.83</v>
+        <v>39535.06</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -23616,7 +23616,7 @@
         <v>77</v>
       </c>
       <c r="D77" s="2">
-        <v>24.88</v>
+        <v>24.93</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -23640,7 +23640,7 @@
         <v>75</v>
       </c>
       <c r="D79" s="2">
-        <v>12.14</v>
+        <v>12.08</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -23652,7 +23652,7 @@
         <v>65</v>
       </c>
       <c r="D80" s="2">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -23664,7 +23664,7 @@
         <v>67</v>
       </c>
       <c r="D81" s="2">
-        <v>22.15</v>
+        <v>22.18</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -23676,19 +23676,19 @@
         <v>82</v>
       </c>
       <c r="D82" s="2">
-        <v>75.760000000000005</v>
+        <v>75.91</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="4"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D83" s="2">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -23697,22 +23697,22 @@
     </row>
     <row r="84" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D84" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="4"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D85" s="2">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -23724,7 +23724,7 @@
         <v>79</v>
       </c>
       <c r="D86" s="2">
-        <v>12.8</v>
+        <v>12.86</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -23760,7 +23760,7 @@
         <v>228</v>
       </c>
       <c r="D89" s="2">
-        <v>19.600000000000001</v>
+        <v>19.53</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -23772,7 +23772,7 @@
         <v>88</v>
       </c>
       <c r="D90" s="2">
-        <v>13.64</v>
+        <v>13.6</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -23796,7 +23796,7 @@
         <v>95</v>
       </c>
       <c r="D92" s="2">
-        <v>90.84</v>
+        <v>90.71</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -23808,7 +23808,7 @@
         <v>84</v>
       </c>
       <c r="D93" s="2">
-        <v>4.38</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -23820,7 +23820,7 @@
         <v>254</v>
       </c>
       <c r="D94" s="2">
-        <v>2.52</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -23844,7 +23844,7 @@
         <v>97</v>
       </c>
       <c r="D96" s="2">
-        <v>2.2400000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -23887,12 +23887,12 @@
       <c r="G99" s="4"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D100" s="2">
-        <v>1.0900000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
